--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,8 +481,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45661</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -522,8 +520,10 @@
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45661</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -563,8 +563,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45665</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -600,8 +602,10 @@
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45665</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -637,8 +641,10 @@
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45667</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -674,8 +680,10 @@
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45667</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -715,8 +723,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45671</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -756,8 +766,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45673</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -797,8 +809,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45675</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -838,8 +852,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45679</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -875,8 +891,10 @@
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45681</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -912,8 +930,10 @@
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45685</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -953,8 +973,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45687</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -994,8 +1016,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45671</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1035,8 +1059,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45673</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1076,8 +1102,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45675</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1117,8 +1145,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45679</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1154,8 +1184,10 @@
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45681</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1191,8 +1223,10 @@
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45685</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1232,8 +1266,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45687</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1273,8 +1309,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45668</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1310,8 +1348,10 @@
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45682</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1347,8 +1387,10 @@
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45669</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1384,8 +1426,10 @@
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45683</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1425,8 +1469,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45689</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1466,8 +1512,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45693</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1503,8 +1551,10 @@
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45695</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1540,8 +1590,10 @@
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45699</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1581,8 +1633,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45701</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1622,8 +1676,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45703</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1663,8 +1719,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45707</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1700,8 +1758,10 @@
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45709</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1737,8 +1797,10 @@
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45713</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1778,8 +1840,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45715</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1819,8 +1883,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45689</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1860,8 +1926,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45693</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1897,8 +1965,10 @@
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45695</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1934,8 +2004,10 @@
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45699</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1975,8 +2047,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45701</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2016,8 +2090,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45703</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2057,8 +2133,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45707</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2094,8 +2172,10 @@
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45709</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2131,8 +2211,10 @@
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45713</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2172,8 +2254,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45715</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2213,8 +2297,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45717</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2254,8 +2340,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45721</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2291,8 +2379,10 @@
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45723</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2328,8 +2418,10 @@
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45727</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2369,8 +2461,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45729</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2410,8 +2504,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45731</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2451,8 +2547,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45735</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2488,8 +2586,10 @@
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45737</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2525,8 +2625,10 @@
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45741</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2566,8 +2668,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45743</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2607,8 +2711,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45745</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2648,8 +2754,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45717</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2689,8 +2797,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45721</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2726,8 +2836,10 @@
       <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45723</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2763,8 +2875,10 @@
       <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45727</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2804,8 +2918,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45729</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2845,8 +2961,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45731</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2886,8 +3004,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45735</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2923,8 +3043,10 @@
       <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45737</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2960,8 +3082,10 @@
       <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45741</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3001,8 +3125,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45743</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3042,8 +3168,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45745</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3083,8 +3211,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45724</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3120,8 +3250,10 @@
       <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45738</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3161,8 +3293,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45725</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3198,8 +3332,10 @@
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45738</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3239,8 +3375,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45749</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3276,8 +3414,10 @@
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45751</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3313,8 +3453,10 @@
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45755</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3354,8 +3496,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45757</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3395,8 +3539,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45759</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3436,8 +3582,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45763</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3473,8 +3621,10 @@
       <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45749</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3510,8 +3660,10 @@
       <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45751</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3547,8 +3699,10 @@
       <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45755</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3588,8 +3742,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45757</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3629,8 +3785,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45759</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3670,8 +3828,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45763</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3707,8 +3867,10 @@
       <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45752</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3744,8 +3906,10 @@
       <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45753</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3785,8 +3949,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45768</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3826,8 +3992,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45773</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3867,8 +4035,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45776</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3904,8 +4074,10 @@
       <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45779</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3941,8 +4113,10 @@
       <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45781</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3978,8 +4152,10 @@
       <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45781</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4019,8 +4195,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45783</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4060,8 +4238,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45785</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4101,8 +4281,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45787</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4142,8 +4324,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45791</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4179,8 +4363,10 @@
       <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45793</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4216,8 +4402,10 @@
       <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45805</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4253,8 +4441,10 @@
       <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45807</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4290,8 +4480,10 @@
       <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45783</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4331,8 +4523,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45785</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4372,8 +4566,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45787</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4413,8 +4609,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45791</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4450,8 +4648,10 @@
       <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45793</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4487,8 +4687,10 @@
       <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45805</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4524,8 +4726,10 @@
       <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>45807</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4561,8 +4765,10 @@
       <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>45796</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4602,8 +4808,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>45798</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4643,8 +4851,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>45800</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4684,8 +4894,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>45797</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4725,8 +4937,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>45799</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4766,8 +4980,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>45801</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4807,8 +5023,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>45811</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4848,8 +5066,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>45815</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4889,8 +5109,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>45819</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4926,8 +5148,10 @@
       <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>45825</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4967,8 +5191,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>45827</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5008,8 +5234,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>45829</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5049,8 +5277,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>45833</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5086,8 +5316,10 @@
       <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>45835</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5123,8 +5355,10 @@
       <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>45811</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5164,8 +5398,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>45815</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5205,8 +5441,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>45819</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5242,8 +5480,10 @@
       <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>45825</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5283,8 +5523,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>45827</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5324,8 +5566,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>45829</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5365,8 +5609,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>45833</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5402,8 +5648,10 @@
       <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>45835</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5439,8 +5687,10 @@
       <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>45821</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5476,8 +5726,10 @@
       <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>45821</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5513,8 +5765,10 @@
       <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>45837</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5550,8 +5804,10 @@
       <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>45837</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5591,8 +5847,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>45838</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5632,8 +5890,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>45839</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5673,8 +5933,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>45841</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5714,8 +5976,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>45842</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5755,8 +6019,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>45846</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5792,8 +6058,10 @@
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>45848</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5833,8 +6101,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>45849</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5874,8 +6144,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>45850</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5911,8 +6183,10 @@
       <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>45881</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5948,8 +6222,10 @@
       <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>45882</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5985,8 +6261,10 @@
       <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>45883</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6022,8 +6300,10 @@
       <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>45884</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6059,8 +6339,10 @@
       <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>45885</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6096,8 +6378,10 @@
       <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>45886</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6133,8 +6417,10 @@
       <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>45888</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6170,8 +6456,10 @@
       <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>45892</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6207,8 +6495,10 @@
       <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>45894</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6244,8 +6534,10 @@
       <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>45895</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6281,8 +6573,10 @@
       <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>45897</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6318,8 +6612,10 @@
       <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>45898</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6355,8 +6651,10 @@
       <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>45903</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6392,8 +6690,10 @@
       <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>45904</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6429,8 +6729,10 @@
       <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>45905</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6466,8 +6768,10 @@
       <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>45906</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6503,8 +6807,10 @@
       <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>45908</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6540,8 +6846,10 @@
       <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>45909</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -6577,8 +6885,10 @@
       <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>45917</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -6614,8 +6924,10 @@
       <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
-        <v>45917</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6651,8 +6963,10 @@
       <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>45918</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6688,8 +7002,10 @@
       <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>45920</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -6725,8 +7041,10 @@
       <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>45920</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6762,8 +7080,10 @@
       <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>45922</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6799,8 +7119,10 @@
       <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>45922</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6836,8 +7158,10 @@
       <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>45924</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6873,8 +7197,10 @@
       <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>45924</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6910,8 +7236,10 @@
       <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>45926</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6947,8 +7275,10 @@
       <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>45926</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6984,8 +7314,10 @@
       <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>45928</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7021,8 +7353,10 @@
       <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>45930</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7058,8 +7392,10 @@
       <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>45932</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7095,8 +7431,10 @@
       <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>45933</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7132,8 +7470,10 @@
       <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>45933</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7169,8 +7509,10 @@
       <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>45937</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7206,8 +7548,10 @@
       <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>45939</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7243,8 +7587,10 @@
       <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>45941</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7280,8 +7626,10 @@
       <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>45945</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -7317,8 +7665,10 @@
       <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>45947</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -7354,8 +7704,10 @@
       <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>45951</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7391,8 +7743,10 @@
       <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>45953</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -7428,8 +7782,10 @@
       <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>45955</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -7465,8 +7821,10 @@
       <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>45959</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7502,8 +7860,10 @@
       <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45937</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -7539,8 +7899,10 @@
       <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>45939</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7576,8 +7938,10 @@
       <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>45941</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7613,8 +7977,10 @@
       <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>45945</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7650,8 +8016,10 @@
       <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>45947</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -7687,8 +8055,10 @@
       <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
-        <v>45951</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -7724,8 +8094,10 @@
       <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>45953</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -7761,8 +8133,10 @@
       <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>45955</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -7798,8 +8172,10 @@
       <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
-        <v>45959</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -7835,8 +8211,10 @@
       <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
-        <v>45961</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7872,8 +8250,10 @@
       <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
-        <v>45962</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -7909,8 +8289,10 @@
       <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
-        <v>45963</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -7946,8 +8328,10 @@
       <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
-        <v>45964</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7983,8 +8367,10 @@
       <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
-        <v>45777</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8018,6 +8404,84 @@
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>37</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>37</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8483,6 +8483,84 @@
       </c>
       <c r="I198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>37</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>37</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8561,6 +8561,84 @@
       </c>
       <c r="I200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>37</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>37</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8639,6 +8639,162 @@
       </c>
       <c r="I202" t="inlineStr"/>
     </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>105</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>152</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>105</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>152</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>105</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>152</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>105</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>152</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8795,6 +8795,162 @@
       </c>
       <c r="I206" t="inlineStr"/>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>105</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>152</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>105</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>152</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>105</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>152</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>105</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>152</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8951,6 +8951,84 @@
       </c>
       <c r="I210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>37</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>37</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9029,6 +9029,84 @@
       </c>
       <c r="I212" t="inlineStr"/>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>37</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>37</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9107,6 +9107,84 @@
       </c>
       <c r="I214" t="inlineStr"/>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>37</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>37</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9185,6 +9185,45 @@
       </c>
       <c r="I216" t="inlineStr"/>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>105</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>152</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9224,6 +9224,45 @@
       </c>
       <c r="I217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>105</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resa hem från jobbet </t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9263,6 +9263,84 @@
       </c>
       <c r="I218" t="inlineStr"/>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>37</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>37</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9341,6 +9341,84 @@
       </c>
       <c r="I220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>37</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>37</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9419,6 +9419,84 @@
       </c>
       <c r="I222" t="inlineStr"/>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>37</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>37</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9497,6 +9497,84 @@
       </c>
       <c r="I224" t="inlineStr"/>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>37</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>37</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9575,6 +9575,84 @@
       </c>
       <c r="I226" t="inlineStr"/>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>37</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>37</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9653,6 +9653,84 @@
       </c>
       <c r="I228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>37</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>37</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9731,6 +9731,45 @@
       </c>
       <c r="I230" t="inlineStr"/>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>105</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>152</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9770,6 +9770,45 @@
       </c>
       <c r="I231" t="inlineStr"/>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>105</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>152</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9809,6 +9809,45 @@
       </c>
       <c r="I232" t="inlineStr"/>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>105</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>152</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9848,6 +9848,45 @@
       </c>
       <c r="I233" t="inlineStr"/>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>105</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>152</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9887,6 +9887,45 @@
       </c>
       <c r="I234" t="inlineStr"/>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>105</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>152</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbo</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9926,6 +9926,45 @@
       </c>
       <c r="I235" t="inlineStr"/>
     </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>105</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>152</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9965,6 +9965,84 @@
       </c>
       <c r="I236" t="inlineStr"/>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>37</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>37</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10043,6 +10043,45 @@
       </c>
       <c r="I238" t="inlineStr"/>
     </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>37</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resa till jobbet </t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10082,6 +10082,45 @@
       </c>
       <c r="I239" t="inlineStr"/>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>21:23</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>37</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resa hem från jobbet </t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>47.5</v>
+        <v>45.7</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>47.5</v>
+        <v>45.7</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10121,6 +10121,45 @@
       </c>
       <c r="I240" t="inlineStr"/>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>00:15</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>105</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>152</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resa till jobbet från särbon </t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10160,6 +10160,45 @@
       </c>
       <c r="I241" t="inlineStr"/>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>105</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>152</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbon</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10199,6 +10199,45 @@
       </c>
       <c r="I242" t="inlineStr"/>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>00:45</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>105</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>152</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Resa till jobbet från särbon</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -10202,7 +10202,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10238,6 +10238,45 @@
       </c>
       <c r="I243" t="inlineStr"/>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>37</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruksgatan 4D, 78474 Borlänge </t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10277,6 +10277,84 @@
       </c>
       <c r="I244" t="inlineStr"/>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>37</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>37</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10355,6 +10355,84 @@
       </c>
       <c r="I246" t="inlineStr"/>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>37</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>37</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10433,6 +10433,84 @@
       </c>
       <c r="I248" t="inlineStr"/>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>37</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>37</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10511,6 +10511,45 @@
       </c>
       <c r="I250" t="inlineStr"/>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>105</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>152</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Res till jobbet från särbon </t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10550,6 +10550,45 @@
       </c>
       <c r="I251" t="inlineStr"/>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>105</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>152</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Res från jobbet till särbon </t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10589,6 +10589,45 @@
       </c>
       <c r="I252" t="inlineStr"/>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>105</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>152</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Res till jobbet från särbon </t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10628,6 +10628,45 @@
       </c>
       <c r="I253" t="inlineStr"/>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>105</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>152</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Res från jobbet till särbon </t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10667,6 +10667,84 @@
       </c>
       <c r="I254" t="inlineStr"/>
     </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>37</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>37</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10745,6 +10745,84 @@
       </c>
       <c r="I256" t="inlineStr"/>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>37</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>37</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10823,6 +10823,84 @@
       </c>
       <c r="I258" t="inlineStr"/>
     </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>37</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>37</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10901,6 +10901,84 @@
       </c>
       <c r="I260" t="inlineStr"/>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>37</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>37</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10979,6 +10979,84 @@
       </c>
       <c r="I262" t="inlineStr"/>
     </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>37</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>37</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11057,6 +11057,45 @@
       </c>
       <c r="I264" t="inlineStr"/>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>105</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>152</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Resa från särbo till jobbet</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11096,6 +11096,45 @@
       </c>
       <c r="I265" t="inlineStr"/>
     </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>105</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Ängsmarksvägen 8B, 749 44 Enköping</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>152</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Resa från jobbet till särbo</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11135,6 +11135,84 @@
       </c>
       <c r="I266" t="inlineStr"/>
     </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>37</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>37</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11213,6 +11213,84 @@
       </c>
       <c r="I268" t="inlineStr"/>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>37</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>37</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/korjournal.xlsx
+++ b/korjournal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11291,6 +11291,84 @@
       </c>
       <c r="I270" t="inlineStr"/>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>37</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Resa till jobbet</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>37</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Kajvägen 13 Parking, Ludvika</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Bruksgatan 4D, 78474 Borlänge</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Resa hem från jobbet</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
